--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FDOS\Geoffrey\Documents\POLYTECH Marseille\4A\Projet Muse\Projet-Muse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FDOS\Geoffrey\Documents\POLYTECH Marseille\4A\Projet Muse\Project_Muse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDF885C-8F26-4610-AEA9-7B91B86DF5D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84DB013-C2F9-45C9-8AC6-0CAA5F9B0A9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C964CD82-8BC5-49C0-8166-E4C28772A61E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Tristan</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Chaikou</t>
+  </si>
+  <si>
+    <t>Mathilde</t>
   </si>
 </sst>
 </file>
@@ -478,15 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E7812E-82AE-4C7F-8E95-97A8610E5C51}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -497,82 +500,85 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>75</v>
-      </c>
       <c r="F3">
         <v>75</v>
       </c>
       <c r="G3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>40</v>
       </c>
-      <c r="F4">
-        <v>70</v>
-      </c>
       <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
       <c r="F5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
       <c r="F6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -586,16 +592,19 @@
         <v>60</v>
       </c>
       <c r="E8">
+        <v>57</v>
+      </c>
+      <c r="F8">
         <v>40</v>
       </c>
-      <c r="F8">
-        <v>70</v>
-      </c>
       <c r="G8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -609,16 +618,19 @@
         <v>65</v>
       </c>
       <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
         <v>40</v>
       </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
       <c r="G9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -632,16 +644,19 @@
         <v>50</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
       <c r="G10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -655,21 +670,24 @@
         <v>60</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
         <v>40</v>
       </c>
-      <c r="G11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -683,16 +701,19 @@
         <v>65</v>
       </c>
       <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="F13">
         <v>55</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>30</v>
       </c>
-      <c r="G13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -712,10 +733,13 @@
         <v>50</v>
       </c>
       <c r="G14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -732,13 +756,16 @@
         <v>60</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -752,21 +779,24 @@
         <v>70</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F16">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G16">
+        <v>70</v>
+      </c>
+      <c r="H16">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -782,8 +812,11 @@
       <c r="E18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -797,10 +830,13 @@
         <v>70</v>
       </c>
       <c r="E19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -814,10 +850,13 @@
         <v>75</v>
       </c>
       <c r="E20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -831,15 +870,18 @@
         <v>70</v>
       </c>
       <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -852,14 +894,17 @@
       <c r="D23">
         <v>45</v>
       </c>
-      <c r="F23">
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="G23">
         <v>40</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -872,14 +917,17 @@
       <c r="D24">
         <v>60</v>
       </c>
-      <c r="F24">
-        <v>70</v>
+      <c r="E24">
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -892,14 +940,17 @@
       <c r="D25">
         <v>65</v>
       </c>
-      <c r="F25">
-        <v>70</v>
+      <c r="E25">
+        <v>55</v>
       </c>
       <c r="G25">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -912,10 +963,13 @@
       <c r="D26">
         <v>60</v>
       </c>
-      <c r="F26">
-        <v>60</v>
+      <c r="E26">
+        <v>26</v>
       </c>
       <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
         <v>60</v>
       </c>
     </row>
